--- a/T4/World.xlsx
+++ b/T4/World.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,5478 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2499322000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>81711670</v>
+      </c>
+      <c r="E2" t="n">
+        <v>341876800</v>
+      </c>
+      <c r="F2" t="n">
+        <v>867688260</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1324977300</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1503426300</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1631619500</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1486728200</v>
+      </c>
+      <c r="K2" t="n">
+        <v>72672420</v>
+      </c>
+      <c r="L2" t="n">
+        <v>260165120</v>
+      </c>
+      <c r="M2" t="n">
+        <v>267730600</v>
+      </c>
+      <c r="N2" t="n">
+        <v>258080860</v>
+      </c>
+      <c r="O2" t="n">
+        <v>237173380</v>
+      </c>
+      <c r="P2" t="n">
+        <v>413760960</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>322364670</v>
+      </c>
+      <c r="R2" t="n">
+        <v>269392260</v>
+      </c>
+      <c r="S2" t="n">
+        <v>189938430</v>
+      </c>
+      <c r="T2" t="n">
+        <v>123919624</v>
+      </c>
+      <c r="U2" t="n">
+        <v>59093256</v>
+      </c>
+      <c r="V2" t="n">
+        <v>14847612</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1129242</v>
+      </c>
+      <c r="X2" t="n">
+        <v>14469</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2543130400</v>
+      </c>
+      <c r="D3" t="n">
+        <v>83458900</v>
+      </c>
+      <c r="E3" t="n">
+        <v>356600770</v>
+      </c>
+      <c r="F3" t="n">
+        <v>887273340</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1350843300</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1526195800</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1655841300</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1508334500</v>
+      </c>
+      <c r="K3" t="n">
+        <v>75971736</v>
+      </c>
+      <c r="L3" t="n">
+        <v>273141860</v>
+      </c>
+      <c r="M3" t="n">
+        <v>271481000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>259191630</v>
+      </c>
+      <c r="O3" t="n">
+        <v>240517540</v>
+      </c>
+      <c r="P3" t="n">
+        <v>420747400</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>325895740</v>
+      </c>
+      <c r="R3" t="n">
+        <v>273626750</v>
+      </c>
+      <c r="S3" t="n">
+        <v>193990420</v>
+      </c>
+      <c r="T3" t="n">
+        <v>125341750</v>
+      </c>
+      <c r="U3" t="n">
+        <v>59735584</v>
+      </c>
+      <c r="V3" t="n">
+        <v>14871890</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1114293</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15671</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1952</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2590271000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>86144744</v>
+      </c>
+      <c r="E4" t="n">
+        <v>370486820</v>
+      </c>
+      <c r="F4" t="n">
+        <v>908814340</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1378735100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1549907600</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1681440400</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1531353300</v>
+      </c>
+      <c r="K4" t="n">
+        <v>77758420</v>
+      </c>
+      <c r="L4" t="n">
+        <v>284342080</v>
+      </c>
+      <c r="M4" t="n">
+        <v>278772130</v>
+      </c>
+      <c r="N4" t="n">
+        <v>259555360</v>
+      </c>
+      <c r="O4" t="n">
+        <v>244720200</v>
+      </c>
+      <c r="P4" t="n">
+        <v>427417600</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>329615740</v>
+      </c>
+      <c r="R4" t="n">
+        <v>277757860</v>
+      </c>
+      <c r="S4" t="n">
+        <v>198466060</v>
+      </c>
+      <c r="T4" t="n">
+        <v>126899540</v>
+      </c>
+      <c r="U4" t="n">
+        <v>60458704</v>
+      </c>
+      <c r="V4" t="n">
+        <v>14993585</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1111125</v>
+      </c>
+      <c r="X4" t="n">
+        <v>16169.001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2640278800</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88318760</v>
+      </c>
+      <c r="E5" t="n">
+        <v>384395600</v>
+      </c>
+      <c r="F5" t="n">
+        <v>932586800</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1407917200</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1573818600</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1707675900</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1555362600</v>
+      </c>
+      <c r="K5" t="n">
+        <v>80697150</v>
+      </c>
+      <c r="L5" t="n">
+        <v>296076800</v>
+      </c>
+      <c r="M5" t="n">
+        <v>288553100</v>
+      </c>
+      <c r="N5" t="n">
+        <v>259638140</v>
+      </c>
+      <c r="O5" t="n">
+        <v>248515440</v>
+      </c>
+      <c r="P5" t="n">
+        <v>433655140</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>333985730</v>
+      </c>
+      <c r="R5" t="n">
+        <v>282018500</v>
+      </c>
+      <c r="S5" t="n">
+        <v>203168620</v>
+      </c>
+      <c r="T5" t="n">
+        <v>128711560</v>
+      </c>
+      <c r="U5" t="n">
+        <v>61285016</v>
+      </c>
+      <c r="V5" t="n">
+        <v>15219245</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1116695</v>
+      </c>
+      <c r="X5" t="n">
+        <v>16048</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1954</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2691979300</v>
+      </c>
+      <c r="D6" t="n">
+        <v>89850344</v>
+      </c>
+      <c r="E6" t="n">
+        <v>396316380</v>
+      </c>
+      <c r="F6" t="n">
+        <v>958075900</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1438125200</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1597577900</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1733888000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1580602400</v>
+      </c>
+      <c r="K6" t="n">
+        <v>82823020</v>
+      </c>
+      <c r="L6" t="n">
+        <v>306466050</v>
+      </c>
+      <c r="M6" t="n">
+        <v>301220400</v>
+      </c>
+      <c r="N6" t="n">
+        <v>260539100</v>
+      </c>
+      <c r="O6" t="n">
+        <v>251193730</v>
+      </c>
+      <c r="P6" t="n">
+        <v>439788670</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>339214900</v>
+      </c>
+      <c r="R6" t="n">
+        <v>286203740</v>
+      </c>
+      <c r="S6" t="n">
+        <v>207818750</v>
+      </c>
+      <c r="T6" t="n">
+        <v>130819400</v>
+      </c>
+      <c r="U6" t="n">
+        <v>62247110</v>
+      </c>
+      <c r="V6" t="n">
+        <v>15473844</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1127845</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15426</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2746072000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>91877850</v>
+      </c>
+      <c r="E7" t="n">
+        <v>406950750</v>
+      </c>
+      <c r="F7" t="n">
+        <v>985901600</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1470246800</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1621455900</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1760155900</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1606869100</v>
+      </c>
+      <c r="K7" t="n">
+        <v>84392200</v>
+      </c>
+      <c r="L7" t="n">
+        <v>315072900</v>
+      </c>
+      <c r="M7" t="n">
+        <v>316528200</v>
+      </c>
+      <c r="N7" t="n">
+        <v>262422600</v>
+      </c>
+      <c r="O7" t="n">
+        <v>253024880</v>
+      </c>
+      <c r="P7" t="n">
+        <v>446039400</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>345666050</v>
+      </c>
+      <c r="R7" t="n">
+        <v>289437060</v>
+      </c>
+      <c r="S7" t="n">
+        <v>212542530</v>
+      </c>
+      <c r="T7" t="n">
+        <v>133154100</v>
+      </c>
+      <c r="U7" t="n">
+        <v>63369140</v>
+      </c>
+      <c r="V7" t="n">
+        <v>15775814</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1146951</v>
+      </c>
+      <c r="X7" t="n">
+        <v>14680</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1956</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2801002800</v>
+      </c>
+      <c r="D8" t="n">
+        <v>92828200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>416565630</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1014436000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1503258600</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1645543400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1786552200</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1633386000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>86468780</v>
+      </c>
+      <c r="L8" t="n">
+        <v>323737400</v>
+      </c>
+      <c r="M8" t="n">
+        <v>331526000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>266344350</v>
+      </c>
+      <c r="O8" t="n">
+        <v>254209460</v>
+      </c>
+      <c r="P8" t="n">
+        <v>452389000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>353650460</v>
+      </c>
+      <c r="R8" t="n">
+        <v>291539600</v>
+      </c>
+      <c r="S8" t="n">
+        <v>217255520</v>
+      </c>
+      <c r="T8" t="n">
+        <v>135625500</v>
+      </c>
+      <c r="U8" t="n">
+        <v>64617708</v>
+      </c>
+      <c r="V8" t="n">
+        <v>16100531</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1164396</v>
+      </c>
+      <c r="X8" t="n">
+        <v>14514</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2857866800</v>
+      </c>
+      <c r="D9" t="n">
+        <v>94998280</v>
+      </c>
+      <c r="E9" t="n">
+        <v>425582820</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1045192640</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1538473600</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1669305000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1812659300</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1659282700</v>
+      </c>
+      <c r="K9" t="n">
+        <v>87488340</v>
+      </c>
+      <c r="L9" t="n">
+        <v>330584540</v>
+      </c>
+      <c r="M9" t="n">
+        <v>345796500</v>
+      </c>
+      <c r="N9" t="n">
+        <v>273813300</v>
+      </c>
+      <c r="O9" t="n">
+        <v>254603940</v>
+      </c>
+      <c r="P9" t="n">
+        <v>458551260</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>363014080</v>
+      </c>
+      <c r="R9" t="n">
+        <v>292787460</v>
+      </c>
+      <c r="S9" t="n">
+        <v>221870690</v>
+      </c>
+      <c r="T9" t="n">
+        <v>138165580</v>
+      </c>
+      <c r="U9" t="n">
+        <v>66049916</v>
+      </c>
+      <c r="V9" t="n">
+        <v>16435203</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1181225</v>
+      </c>
+      <c r="X9" t="n">
+        <v>14867</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2916108000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>96395490</v>
+      </c>
+      <c r="E10" t="n">
+        <v>433661500</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1076853200</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1574132200</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1693140400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1839238400</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1685298800</v>
+      </c>
+      <c r="K10" t="n">
+        <v>89584664</v>
+      </c>
+      <c r="L10" t="n">
+        <v>337266020</v>
+      </c>
+      <c r="M10" t="n">
+        <v>358411650</v>
+      </c>
+      <c r="N10" t="n">
+        <v>284780160</v>
+      </c>
+      <c r="O10" t="n">
+        <v>255203140</v>
+      </c>
+      <c r="P10" t="n">
+        <v>463987600</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>373287000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>293350880</v>
+      </c>
+      <c r="S10" t="n">
+        <v>226613760</v>
+      </c>
+      <c r="T10" t="n">
+        <v>140960670</v>
+      </c>
+      <c r="U10" t="n">
+        <v>67805900</v>
+      </c>
+      <c r="V10" t="n">
+        <v>16795792</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1233688</v>
+      </c>
+      <c r="X10" t="n">
+        <v>16361</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2970292200</v>
+      </c>
+      <c r="D11" t="n">
+        <v>94290160</v>
+      </c>
+      <c r="E11" t="n">
+        <v>437118000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1104641500</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1605815900</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1716650500</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1865632000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1711248100</v>
+      </c>
+      <c r="K11" t="n">
+        <v>90589250</v>
+      </c>
+      <c r="L11" t="n">
+        <v>342827870</v>
+      </c>
+      <c r="M11" t="n">
+        <v>369615580</v>
+      </c>
+      <c r="N11" t="n">
+        <v>297907940</v>
+      </c>
+      <c r="O11" t="n">
+        <v>256350960</v>
+      </c>
+      <c r="P11" t="n">
+        <v>468781820</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>382988830</v>
+      </c>
+      <c r="R11" t="n">
+        <v>294416860</v>
+      </c>
+      <c r="S11" t="n">
+        <v>231487120</v>
+      </c>
+      <c r="T11" t="n">
+        <v>143751300</v>
+      </c>
+      <c r="U11" t="n">
+        <v>69412650</v>
+      </c>
+      <c r="V11" t="n">
+        <v>17145640</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1296871</v>
+      </c>
+      <c r="X11" t="n">
+        <v>18583</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3019233500</v>
+      </c>
+      <c r="D12" t="n">
+        <v>92745030</v>
+      </c>
+      <c r="E12" t="n">
+        <v>436018270</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1128260600</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1633471400</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1739390300</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1890952700</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1735299600</v>
+      </c>
+      <c r="K12" t="n">
+        <v>88134860</v>
+      </c>
+      <c r="L12" t="n">
+        <v>343273200</v>
+      </c>
+      <c r="M12" t="n">
+        <v>380181980</v>
+      </c>
+      <c r="N12" t="n">
+        <v>312060320</v>
+      </c>
+      <c r="O12" t="n">
+        <v>257685170</v>
+      </c>
+      <c r="P12" t="n">
+        <v>473228500</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>391273060</v>
+      </c>
+      <c r="R12" t="n">
+        <v>296866750</v>
+      </c>
+      <c r="S12" t="n">
+        <v>235895360</v>
+      </c>
+      <c r="T12" t="n">
+        <v>146706320</v>
+      </c>
+      <c r="U12" t="n">
+        <v>70498984</v>
+      </c>
+      <c r="V12" t="n">
+        <v>17465832</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1332665</v>
+      </c>
+      <c r="X12" t="n">
+        <v>20198</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3068370700</v>
+      </c>
+      <c r="D13" t="n">
+        <v>92565750</v>
+      </c>
+      <c r="E13" t="n">
+        <v>434590430</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1149244000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1660156200</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1764618100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1919105300</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1759160000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>86897480</v>
+      </c>
+      <c r="L13" t="n">
+        <v>342024700</v>
+      </c>
+      <c r="M13" t="n">
+        <v>388983780</v>
+      </c>
+      <c r="N13" t="n">
+        <v>325669760</v>
+      </c>
+      <c r="O13" t="n">
+        <v>261404110</v>
+      </c>
+      <c r="P13" t="n">
+        <v>477955140</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>398597400</v>
+      </c>
+      <c r="R13" t="n">
+        <v>300261820</v>
+      </c>
+      <c r="S13" t="n">
+        <v>239951220</v>
+      </c>
+      <c r="T13" t="n">
+        <v>150158000</v>
+      </c>
+      <c r="U13" t="n">
+        <v>71585910</v>
+      </c>
+      <c r="V13" t="n">
+        <v>17830162</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1361570</v>
+      </c>
+      <c r="X13" t="n">
+        <v>21339</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3126686700</v>
+      </c>
+      <c r="D14" t="n">
+        <v>97911930</v>
+      </c>
+      <c r="E14" t="n">
+        <v>438726140</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1174249000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1693827000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1794399700</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1952416000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1784929800</v>
+      </c>
+      <c r="K14" t="n">
+        <v>87403310</v>
+      </c>
+      <c r="L14" t="n">
+        <v>340814240</v>
+      </c>
+      <c r="M14" t="n">
+        <v>397182460</v>
+      </c>
+      <c r="N14" t="n">
+        <v>338340320</v>
+      </c>
+      <c r="O14" t="n">
+        <v>269267460</v>
+      </c>
+      <c r="P14" t="n">
+        <v>482524400</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>405646340</v>
+      </c>
+      <c r="R14" t="n">
+        <v>304118430</v>
+      </c>
+      <c r="S14" t="n">
+        <v>244176130</v>
+      </c>
+      <c r="T14" t="n">
+        <v>154128690</v>
+      </c>
+      <c r="U14" t="n">
+        <v>72919970</v>
+      </c>
+      <c r="V14" t="n">
+        <v>18241036</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1393488</v>
+      </c>
+      <c r="X14" t="n">
+        <v>21877</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3195779300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>107113580</v>
+      </c>
+      <c r="E15" t="n">
+        <v>451875330</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1207051300</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1737333200</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1826782500</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1988705900</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1812124300</v>
+      </c>
+      <c r="K15" t="n">
+        <v>92882504</v>
+      </c>
+      <c r="L15" t="n">
+        <v>344761760</v>
+      </c>
+      <c r="M15" t="n">
+        <v>404572220</v>
+      </c>
+      <c r="N15" t="n">
+        <v>350603650</v>
+      </c>
+      <c r="O15" t="n">
+        <v>279886850</v>
+      </c>
+      <c r="P15" t="n">
+        <v>486415000</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>412157500</v>
+      </c>
+      <c r="R15" t="n">
+        <v>308762270</v>
+      </c>
+      <c r="S15" t="n">
+        <v>248519280</v>
+      </c>
+      <c r="T15" t="n">
+        <v>158422660</v>
+      </c>
+      <c r="U15" t="n">
+        <v>74434136</v>
+      </c>
+      <c r="V15" t="n">
+        <v>18677052</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1431164</v>
+      </c>
+      <c r="X15" t="n">
+        <v>22087</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3267212300</v>
+      </c>
+      <c r="D16" t="n">
+        <v>109712580</v>
+      </c>
+      <c r="E16" t="n">
+        <v>469079500</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1239843000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1783175300</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1861250200</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2027346700</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1842098000</v>
+      </c>
+      <c r="K16" t="n">
+        <v>101790500</v>
+      </c>
+      <c r="L16" t="n">
+        <v>359366900</v>
+      </c>
+      <c r="M16" t="n">
+        <v>408649700</v>
+      </c>
+      <c r="N16" t="n">
+        <v>362113800</v>
+      </c>
+      <c r="O16" t="n">
+        <v>292328450</v>
+      </c>
+      <c r="P16" t="n">
+        <v>490442980</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>418021120</v>
+      </c>
+      <c r="R16" t="n">
+        <v>314130720</v>
+      </c>
+      <c r="S16" t="n">
+        <v>252880220</v>
+      </c>
+      <c r="T16" t="n">
+        <v>162666030</v>
+      </c>
+      <c r="U16" t="n">
+        <v>76171230</v>
+      </c>
+      <c r="V16" t="n">
+        <v>19222396</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1483576</v>
+      </c>
+      <c r="X16" t="n">
+        <v>22609</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3337112000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>108841544</v>
+      </c>
+      <c r="E17" t="n">
+        <v>485579870</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1268848300</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1827695500</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1897656600</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2068240600</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1875406300</v>
+      </c>
+      <c r="K17" t="n">
+        <v>104311304</v>
+      </c>
+      <c r="L17" t="n">
+        <v>376738340</v>
+      </c>
+      <c r="M17" t="n">
+        <v>410218180</v>
+      </c>
+      <c r="N17" t="n">
+        <v>373050180</v>
+      </c>
+      <c r="O17" t="n">
+        <v>306485470</v>
+      </c>
+      <c r="P17" t="n">
+        <v>494615600</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>423881000</v>
+      </c>
+      <c r="R17" t="n">
+        <v>320566530</v>
+      </c>
+      <c r="S17" t="n">
+        <v>256316340</v>
+      </c>
+      <c r="T17" t="n">
+        <v>166937890</v>
+      </c>
+      <c r="U17" t="n">
+        <v>78047490</v>
+      </c>
+      <c r="V17" t="n">
+        <v>19842096</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1548286</v>
+      </c>
+      <c r="X17" t="n">
+        <v>23063</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3406417000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>108920370</v>
+      </c>
+      <c r="E18" t="n">
+        <v>501364830</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1295492200</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1871754100</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1935559700</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2110901400</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1910540700</v>
+      </c>
+      <c r="K18" t="n">
+        <v>103539144</v>
+      </c>
+      <c r="L18" t="n">
+        <v>392444480</v>
+      </c>
+      <c r="M18" t="n">
+        <v>411640500</v>
+      </c>
+      <c r="N18" t="n">
+        <v>382486880</v>
+      </c>
+      <c r="O18" t="n">
+        <v>320271460</v>
+      </c>
+      <c r="P18" t="n">
+        <v>500296220</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>429962600</v>
+      </c>
+      <c r="R18" t="n">
+        <v>328680320</v>
+      </c>
+      <c r="S18" t="n">
+        <v>258364160</v>
+      </c>
+      <c r="T18" t="n">
+        <v>171211040</v>
+      </c>
+      <c r="U18" t="n">
+        <v>80013336</v>
+      </c>
+      <c r="V18" t="n">
+        <v>20488244</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1613972</v>
+      </c>
+      <c r="X18" t="n">
+        <v>23436</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3475448000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>108541360</v>
+      </c>
+      <c r="E19" t="n">
+        <v>511646460</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1319269400</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1915950100</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1975775200</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2156154600</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1947929200</v>
+      </c>
+      <c r="K19" t="n">
+        <v>103713896</v>
+      </c>
+      <c r="L19" t="n">
+        <v>403105120</v>
+      </c>
+      <c r="M19" t="n">
+        <v>416578000</v>
+      </c>
+      <c r="N19" t="n">
+        <v>391044930</v>
+      </c>
+      <c r="O19" t="n">
+        <v>333030820</v>
+      </c>
+      <c r="P19" t="n">
+        <v>508796600</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>436131800</v>
+      </c>
+      <c r="R19" t="n">
+        <v>338139970</v>
+      </c>
+      <c r="S19" t="n">
+        <v>259508180</v>
+      </c>
+      <c r="T19" t="n">
+        <v>175552590</v>
+      </c>
+      <c r="U19" t="n">
+        <v>82082696</v>
+      </c>
+      <c r="V19" t="n">
+        <v>21231882</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1680082</v>
+      </c>
+      <c r="X19" t="n">
+        <v>24140</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3546811000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>110814060</v>
+      </c>
+      <c r="E20" t="n">
+        <v>515804480</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1343594800</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1963022700</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2017649500</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2203191000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1987809300</v>
+      </c>
+      <c r="K20" t="n">
+        <v>103437010</v>
+      </c>
+      <c r="L20" t="n">
+        <v>404990400</v>
+      </c>
+      <c r="M20" t="n">
+        <v>429145540</v>
+      </c>
+      <c r="N20" t="n">
+        <v>398644770</v>
+      </c>
+      <c r="O20" t="n">
+        <v>345350720</v>
+      </c>
+      <c r="P20" t="n">
+        <v>519363680</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>441858500</v>
+      </c>
+      <c r="R20" t="n">
+        <v>348335420</v>
+      </c>
+      <c r="S20" t="n">
+        <v>260330180</v>
+      </c>
+      <c r="T20" t="n">
+        <v>179998460</v>
+      </c>
+      <c r="U20" t="n">
+        <v>84176000</v>
+      </c>
+      <c r="V20" t="n">
+        <v>22038006</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1740183</v>
+      </c>
+      <c r="X20" t="n">
+        <v>24850</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3620655400</v>
+      </c>
+      <c r="D21" t="n">
+        <v>113365180</v>
+      </c>
+      <c r="E21" t="n">
+        <v>520142800</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1369027100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2012379400</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2060930800</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2251602400</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2029810400</v>
+      </c>
+      <c r="K21" t="n">
+        <v>105772690</v>
+      </c>
+      <c r="L21" t="n">
+        <v>406777600</v>
+      </c>
+      <c r="M21" t="n">
+        <v>445916000</v>
+      </c>
+      <c r="N21" t="n">
+        <v>402968260</v>
+      </c>
+      <c r="O21" t="n">
+        <v>356947520</v>
+      </c>
+      <c r="P21" t="n">
+        <v>532386370</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>446897060</v>
+      </c>
+      <c r="R21" t="n">
+        <v>358086560</v>
+      </c>
+      <c r="S21" t="n">
+        <v>261794860</v>
+      </c>
+      <c r="T21" t="n">
+        <v>184579820</v>
+      </c>
+      <c r="U21" t="n">
+        <v>86291736</v>
+      </c>
+      <c r="V21" t="n">
+        <v>22813552</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1804877</v>
+      </c>
+      <c r="X21" t="n">
+        <v>25852</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3695390200</v>
+      </c>
+      <c r="D22" t="n">
+        <v>114466110</v>
+      </c>
+      <c r="E22" t="n">
+        <v>526218980</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1393261700</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2061836400</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2106120400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2302101200</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2074438900</v>
+      </c>
+      <c r="K22" t="n">
+        <v>108361990</v>
+      </c>
+      <c r="L22" t="n">
+        <v>411752860</v>
+      </c>
+      <c r="M22" t="n">
+        <v>462382750</v>
+      </c>
+      <c r="N22" t="n">
+        <v>404659970</v>
+      </c>
+      <c r="O22" t="n">
+        <v>367945060</v>
+      </c>
+      <c r="P22" t="n">
+        <v>548076740</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>451607970</v>
+      </c>
+      <c r="R22" t="n">
+        <v>366753920</v>
+      </c>
+      <c r="S22" t="n">
+        <v>264680750</v>
+      </c>
+      <c r="T22" t="n">
+        <v>188945060</v>
+      </c>
+      <c r="U22" t="n">
+        <v>88701520</v>
+      </c>
+      <c r="V22" t="n">
+        <v>23503218</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1887031</v>
+      </c>
+      <c r="X22" t="n">
+        <v>27401</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3770163200</v>
+      </c>
+      <c r="D23" t="n">
+        <v>115411350</v>
+      </c>
+      <c r="E23" t="n">
+        <v>532881150</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1417150300</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2108942700</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2151483400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2352984000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2120605300</v>
+      </c>
+      <c r="K23" t="n">
+        <v>109421730</v>
+      </c>
+      <c r="L23" t="n">
+        <v>417469820</v>
+      </c>
+      <c r="M23" t="n">
+        <v>478167940</v>
+      </c>
+      <c r="N23" t="n">
+        <v>406101300</v>
+      </c>
+      <c r="O23" t="n">
+        <v>377354100</v>
+      </c>
+      <c r="P23" t="n">
+        <v>565647800</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>456613820</v>
+      </c>
+      <c r="R23" t="n">
+        <v>374285060</v>
+      </c>
+      <c r="S23" t="n">
+        <v>268497340</v>
+      </c>
+      <c r="T23" t="n">
+        <v>192949250</v>
+      </c>
+      <c r="U23" t="n">
+        <v>91514020</v>
+      </c>
+      <c r="V23" t="n">
+        <v>24148084</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1974478</v>
+      </c>
+      <c r="X23" t="n">
+        <v>28733</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3844800800</v>
+      </c>
+      <c r="D24" t="n">
+        <v>115300696</v>
+      </c>
+      <c r="E24" t="n">
+        <v>539731000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1439367800</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2152162600</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2198078500</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2405403000</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2168279000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>110367370</v>
+      </c>
+      <c r="L24" t="n">
+        <v>424430340</v>
+      </c>
+      <c r="M24" t="n">
+        <v>488551420</v>
+      </c>
+      <c r="N24" t="n">
+        <v>411085380</v>
+      </c>
+      <c r="O24" t="n">
+        <v>385729860</v>
+      </c>
+      <c r="P24" t="n">
+        <v>586059140</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>461401660</v>
+      </c>
+      <c r="R24" t="n">
+        <v>381213300</v>
+      </c>
+      <c r="S24" t="n">
+        <v>272565440</v>
+      </c>
+      <c r="T24" t="n">
+        <v>196922340</v>
+      </c>
+      <c r="U24" t="n">
+        <v>94616080</v>
+      </c>
+      <c r="V24" t="n">
+        <v>24828820</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2066249</v>
+      </c>
+      <c r="X24" t="n">
+        <v>30175</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3920251400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>115298370</v>
+      </c>
+      <c r="E25" t="n">
+        <v>544571100</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1461062800</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2193519900</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2245679000</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2459156700</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2218332200</v>
+      </c>
+      <c r="K25" t="n">
+        <v>110407600</v>
+      </c>
+      <c r="L25" t="n">
+        <v>429272700</v>
+      </c>
+      <c r="M25" t="n">
+        <v>492871070</v>
+      </c>
+      <c r="N25" t="n">
+        <v>423620600</v>
+      </c>
+      <c r="O25" t="n">
+        <v>393216030</v>
+      </c>
+      <c r="P25" t="n">
+        <v>608700200</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>465585920</v>
+      </c>
+      <c r="R25" t="n">
+        <v>387652860</v>
+      </c>
+      <c r="S25" t="n">
+        <v>277457120</v>
+      </c>
+      <c r="T25" t="n">
+        <v>200973200</v>
+      </c>
+      <c r="U25" t="n">
+        <v>97843176</v>
+      </c>
+      <c r="V25" t="n">
+        <v>25563396</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2164846</v>
+      </c>
+      <c r="X25" t="n">
+        <v>31967</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3995517000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>114954790</v>
+      </c>
+      <c r="E26" t="n">
+        <v>546653060</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1484271400</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2232518100</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2291242800</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2511211500</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2269164800</v>
+      </c>
+      <c r="K26" t="n">
+        <v>110492480</v>
+      </c>
+      <c r="L26" t="n">
+        <v>431698300</v>
+      </c>
+      <c r="M26" t="n">
+        <v>497335420</v>
+      </c>
+      <c r="N26" t="n">
+        <v>440282850</v>
+      </c>
+      <c r="O26" t="n">
+        <v>397498660</v>
+      </c>
+      <c r="P26" t="n">
+        <v>632337500</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>469971260</v>
+      </c>
+      <c r="R26" t="n">
+        <v>393535780</v>
+      </c>
+      <c r="S26" t="n">
+        <v>283028260</v>
+      </c>
+      <c r="T26" t="n">
+        <v>205055000</v>
+      </c>
+      <c r="U26" t="n">
+        <v>101104220</v>
+      </c>
+      <c r="V26" t="n">
+        <v>26401588</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2279210</v>
+      </c>
+      <c r="X26" t="n">
+        <v>34221</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4069437200</v>
+      </c>
+      <c r="D27" t="n">
+        <v>113764850</v>
+      </c>
+      <c r="E27" t="n">
+        <v>546574300</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1506827400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2267689500</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2335929900</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2562572800</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2321444900</v>
+      </c>
+      <c r="K27" t="n">
+        <v>110256560</v>
+      </c>
+      <c r="L27" t="n">
+        <v>432809400</v>
+      </c>
+      <c r="M27" t="n">
+        <v>503721730</v>
+      </c>
+      <c r="N27" t="n">
+        <v>456531400</v>
+      </c>
+      <c r="O27" t="n">
+        <v>399209340</v>
+      </c>
+      <c r="P27" t="n">
+        <v>657199940</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>474471550</v>
+      </c>
+      <c r="R27" t="n">
+        <v>399463300</v>
+      </c>
+      <c r="S27" t="n">
+        <v>289602560</v>
+      </c>
+      <c r="T27" t="n">
+        <v>208384720</v>
+      </c>
+      <c r="U27" t="n">
+        <v>104466616</v>
+      </c>
+      <c r="V27" t="n">
+        <v>27364204</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2410560</v>
+      </c>
+      <c r="X27" t="n">
+        <v>37044</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4142505700</v>
+      </c>
+      <c r="D28" t="n">
+        <v>113156980</v>
+      </c>
+      <c r="E28" t="n">
+        <v>545127040</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1528235900</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2299921700</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2380890400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2614230500</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2374413300</v>
+      </c>
+      <c r="K28" t="n">
+        <v>109227490</v>
+      </c>
+      <c r="L28" t="n">
+        <v>431970050</v>
+      </c>
+      <c r="M28" t="n">
+        <v>511105900</v>
+      </c>
+      <c r="N28" t="n">
+        <v>472003000</v>
+      </c>
+      <c r="O28" t="n">
+        <v>400642980</v>
+      </c>
+      <c r="P28" t="n">
+        <v>680257340</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>480440600</v>
+      </c>
+      <c r="R28" t="n">
+        <v>405710560</v>
+      </c>
+      <c r="S28" t="n">
+        <v>297743680</v>
+      </c>
+      <c r="T28" t="n">
+        <v>210594540</v>
+      </c>
+      <c r="U28" t="n">
+        <v>107897340</v>
+      </c>
+      <c r="V28" t="n">
+        <v>28410284</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2533106</v>
+      </c>
+      <c r="X28" t="n">
+        <v>39452</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4215772400</v>
+      </c>
+      <c r="D29" t="n">
+        <v>113087510</v>
+      </c>
+      <c r="E29" t="n">
+        <v>543679550</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1544625200</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2329772000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2430861600</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2671105800</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2425886200</v>
+      </c>
+      <c r="K29" t="n">
+        <v>108715944</v>
+      </c>
+      <c r="L29" t="n">
+        <v>430592030</v>
+      </c>
+      <c r="M29" t="n">
+        <v>518685300</v>
+      </c>
+      <c r="N29" t="n">
+        <v>482260320</v>
+      </c>
+      <c r="O29" t="n">
+        <v>405565760</v>
+      </c>
+      <c r="P29" t="n">
+        <v>701416100</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>489323070</v>
+      </c>
+      <c r="R29" t="n">
+        <v>412074180</v>
+      </c>
+      <c r="S29" t="n">
+        <v>307058080</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212008110</v>
+      </c>
+      <c r="U29" t="n">
+        <v>111443270</v>
+      </c>
+      <c r="V29" t="n">
+        <v>29551132</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2666083</v>
+      </c>
+      <c r="X29" t="n">
+        <v>41466</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4289657600</v>
+      </c>
+      <c r="D30" t="n">
+        <v>113443670</v>
+      </c>
+      <c r="E30" t="n">
+        <v>542524800</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1553108900</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2358358000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2489209900</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2736505300</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2477020000</v>
+      </c>
+      <c r="K30" t="n">
+        <v>108706130</v>
+      </c>
+      <c r="L30" t="n">
+        <v>429081100</v>
+      </c>
+      <c r="M30" t="n">
+        <v>523918140</v>
+      </c>
+      <c r="N30" t="n">
+        <v>486665920</v>
+      </c>
+      <c r="O30" t="n">
+        <v>417929730</v>
+      </c>
+      <c r="P30" t="n">
+        <v>721397000</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>500233820</v>
+      </c>
+      <c r="R30" t="n">
+        <v>418033280</v>
+      </c>
+      <c r="S30" t="n">
+        <v>317010980</v>
+      </c>
+      <c r="T30" t="n">
+        <v>213162820</v>
+      </c>
+      <c r="U30" t="n">
+        <v>115135570</v>
+      </c>
+      <c r="V30" t="n">
+        <v>30773852</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2828372</v>
+      </c>
+      <c r="X30" t="n">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4365583000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>115527480</v>
+      </c>
+      <c r="E31" t="n">
+        <v>543799550</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1561554300</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2387626500</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2549738500</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2803982600</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2528515600</v>
+      </c>
+      <c r="K31" t="n">
+        <v>109192820</v>
+      </c>
+      <c r="L31" t="n">
+        <v>428272100</v>
+      </c>
+      <c r="M31" t="n">
+        <v>526523780</v>
+      </c>
+      <c r="N31" t="n">
+        <v>491230980</v>
+      </c>
+      <c r="O31" t="n">
+        <v>434238700</v>
+      </c>
+      <c r="P31" t="n">
+        <v>737630460</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>513370400</v>
+      </c>
+      <c r="R31" t="n">
+        <v>423354750</v>
+      </c>
+      <c r="S31" t="n">
+        <v>326470080</v>
+      </c>
+      <c r="T31" t="n">
+        <v>215024690</v>
+      </c>
+      <c r="U31" t="n">
+        <v>118869220</v>
+      </c>
+      <c r="V31" t="n">
+        <v>32025398</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2998894</v>
+      </c>
+      <c r="X31" t="n">
+        <v>45922</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4444008000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>118225620</v>
+      </c>
+      <c r="E32" t="n">
+        <v>548692500</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1573398800</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2417723400</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2610250500</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2870559500</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2584729600</v>
+      </c>
+      <c r="K32" t="n">
+        <v>111331370</v>
+      </c>
+      <c r="L32" t="n">
+        <v>430466850</v>
+      </c>
+      <c r="M32" t="n">
+        <v>526988580</v>
+      </c>
+      <c r="N32" t="n">
+        <v>497717800</v>
+      </c>
+      <c r="O32" t="n">
+        <v>450454200</v>
+      </c>
+      <c r="P32" t="n">
+        <v>750994100</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>529157820</v>
+      </c>
+      <c r="R32" t="n">
+        <v>428345300</v>
+      </c>
+      <c r="S32" t="n">
+        <v>334648830</v>
+      </c>
+      <c r="T32" t="n">
+        <v>218066370</v>
+      </c>
+      <c r="U32" t="n">
+        <v>122374650</v>
+      </c>
+      <c r="V32" t="n">
+        <v>33372598</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3145513</v>
+      </c>
+      <c r="X32" t="n">
+        <v>49409</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4524627500</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120686630</v>
+      </c>
+      <c r="E33" t="n">
+        <v>556539800</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1587463700</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2449547500</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2671938000</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2937110800</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2649036500</v>
+      </c>
+      <c r="K33" t="n">
+        <v>114046470</v>
+      </c>
+      <c r="L33" t="n">
+        <v>435853200</v>
+      </c>
+      <c r="M33" t="n">
+        <v>525762940</v>
+      </c>
+      <c r="N33" t="n">
+        <v>505160930</v>
+      </c>
+      <c r="O33" t="n">
+        <v>466299300</v>
+      </c>
+      <c r="P33" t="n">
+        <v>762783360</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>547108500</v>
+      </c>
+      <c r="R33" t="n">
+        <v>433628540</v>
+      </c>
+      <c r="S33" t="n">
+        <v>341737120</v>
+      </c>
+      <c r="T33" t="n">
+        <v>221869310</v>
+      </c>
+      <c r="U33" t="n">
+        <v>125611060</v>
+      </c>
+      <c r="V33" t="n">
+        <v>34803660</v>
+      </c>
+      <c r="W33" t="n">
+        <v>3269853</v>
+      </c>
+      <c r="X33" t="n">
+        <v>53255</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4607984600</v>
+      </c>
+      <c r="D34" t="n">
+        <v>123567350</v>
+      </c>
+      <c r="E34" t="n">
+        <v>567530430</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1604864600</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2482796800</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2733599700</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3003062800</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2715339300</v>
+      </c>
+      <c r="K34" t="n">
+        <v>116585380</v>
+      </c>
+      <c r="L34" t="n">
+        <v>443963070</v>
+      </c>
+      <c r="M34" t="n">
+        <v>524467740</v>
+      </c>
+      <c r="N34" t="n">
+        <v>512866500</v>
+      </c>
+      <c r="O34" t="n">
+        <v>476989900</v>
+      </c>
+      <c r="P34" t="n">
+        <v>776744060</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>567883970</v>
+      </c>
+      <c r="R34" t="n">
+        <v>438628770</v>
+      </c>
+      <c r="S34" t="n">
+        <v>348394900</v>
+      </c>
+      <c r="T34" t="n">
+        <v>225820400</v>
+      </c>
+      <c r="U34" t="n">
+        <v>128843980</v>
+      </c>
+      <c r="V34" t="n">
+        <v>36351532</v>
+      </c>
+      <c r="W34" t="n">
+        <v>3405201</v>
+      </c>
+      <c r="X34" t="n">
+        <v>57486</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4691884000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>124582660</v>
+      </c>
+      <c r="E35" t="n">
+        <v>579085900</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1621005300</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2516181000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2797179000</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3070817300</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2780279800</v>
+      </c>
+      <c r="K35" t="n">
+        <v>119475896</v>
+      </c>
+      <c r="L35" t="n">
+        <v>454503230</v>
+      </c>
+      <c r="M35" t="n">
+        <v>523596260</v>
+      </c>
+      <c r="N35" t="n">
+        <v>518323200</v>
+      </c>
+      <c r="O35" t="n">
+        <v>481878400</v>
+      </c>
+      <c r="P35" t="n">
+        <v>796840600</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>590670700</v>
+      </c>
+      <c r="R35" t="n">
+        <v>442975140</v>
+      </c>
+      <c r="S35" t="n">
+        <v>354538800</v>
+      </c>
+      <c r="T35" t="n">
+        <v>230342830</v>
+      </c>
+      <c r="U35" t="n">
+        <v>132089060</v>
+      </c>
+      <c r="V35" t="n">
+        <v>37936090</v>
+      </c>
+      <c r="W35" t="n">
+        <v>3545644</v>
+      </c>
+      <c r="X35" t="n">
+        <v>61687</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4775836000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>125070110</v>
+      </c>
+      <c r="E36" t="n">
+        <v>588951600</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1635086500</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2551754200</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2862124300</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3140684000</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2844774400</v>
+      </c>
+      <c r="K36" t="n">
+        <v>120525256</v>
+      </c>
+      <c r="L36" t="n">
+        <v>463881540</v>
+      </c>
+      <c r="M36" t="n">
+        <v>525119580</v>
+      </c>
+      <c r="N36" t="n">
+        <v>521015260</v>
+      </c>
+      <c r="O36" t="n">
+        <v>486990600</v>
+      </c>
+      <c r="P36" t="n">
+        <v>817562800</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>614517400</v>
+      </c>
+      <c r="R36" t="n">
+        <v>447472300</v>
+      </c>
+      <c r="S36" t="n">
+        <v>360150900</v>
+      </c>
+      <c r="T36" t="n">
+        <v>235528640</v>
+      </c>
+      <c r="U36" t="n">
+        <v>135296910</v>
+      </c>
+      <c r="V36" t="n">
+        <v>39462570</v>
+      </c>
+      <c r="W36" t="n">
+        <v>3701904</v>
+      </c>
+      <c r="X36" t="n">
+        <v>65617</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4861731000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>127239380</v>
+      </c>
+      <c r="E37" t="n">
+        <v>598278460</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1650142000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2590052600</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2926769700</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3211519000</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2908840000</v>
+      </c>
+      <c r="K37" t="n">
+        <v>121102940</v>
+      </c>
+      <c r="L37" t="n">
+        <v>471039070</v>
+      </c>
+      <c r="M37" t="n">
+        <v>530389060</v>
+      </c>
+      <c r="N37" t="n">
+        <v>521474430</v>
+      </c>
+      <c r="O37" t="n">
+        <v>494018020</v>
+      </c>
+      <c r="P37" t="n">
+        <v>835497300</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>639682240</v>
+      </c>
+      <c r="R37" t="n">
+        <v>452097100</v>
+      </c>
+      <c r="S37" t="n">
+        <v>365871170</v>
+      </c>
+      <c r="T37" t="n">
+        <v>241579230</v>
+      </c>
+      <c r="U37" t="n">
+        <v>137871410</v>
+      </c>
+      <c r="V37" t="n">
+        <v>41019570</v>
+      </c>
+      <c r="W37" t="n">
+        <v>3882983</v>
+      </c>
+      <c r="X37" t="n">
+        <v>69669</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4950063000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>129854170</v>
+      </c>
+      <c r="E38" t="n">
+        <v>607676700</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1666709100</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2630116000</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2991565800</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3283279000</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2975429000</v>
+      </c>
+      <c r="K38" t="n">
+        <v>123347960</v>
+      </c>
+      <c r="L38" t="n">
+        <v>477822530</v>
+      </c>
+      <c r="M38" t="n">
+        <v>538765250</v>
+      </c>
+      <c r="N38" t="n">
+        <v>520267230</v>
+      </c>
+      <c r="O38" t="n">
+        <v>501814270</v>
+      </c>
+      <c r="P38" t="n">
+        <v>852797950</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>663141400</v>
+      </c>
+      <c r="R38" t="n">
+        <v>458415800</v>
+      </c>
+      <c r="S38" t="n">
+        <v>371953540</v>
+      </c>
+      <c r="T38" t="n">
+        <v>248942200</v>
+      </c>
+      <c r="U38" t="n">
+        <v>139529460</v>
+      </c>
+      <c r="V38" t="n">
+        <v>42603200</v>
+      </c>
+      <c r="W38" t="n">
+        <v>4081325</v>
+      </c>
+      <c r="X38" t="n">
+        <v>75077</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5040984600</v>
+      </c>
+      <c r="D39" t="n">
+        <v>132512200</v>
+      </c>
+      <c r="E39" t="n">
+        <v>616953200</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1686010400</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2667833900</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3055848400</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3354891800</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3044634400</v>
+      </c>
+      <c r="K39" t="n">
+        <v>126043850</v>
+      </c>
+      <c r="L39" t="n">
+        <v>484441020</v>
+      </c>
+      <c r="M39" t="n">
+        <v>550096500</v>
+      </c>
+      <c r="N39" t="n">
+        <v>518960700</v>
+      </c>
+      <c r="O39" t="n">
+        <v>509608670</v>
+      </c>
+      <c r="P39" t="n">
+        <v>868372860</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>684544830</v>
+      </c>
+      <c r="R39" t="n">
+        <v>467613300</v>
+      </c>
+      <c r="S39" t="n">
+        <v>378190500</v>
+      </c>
+      <c r="T39" t="n">
+        <v>257289340</v>
+      </c>
+      <c r="U39" t="n">
+        <v>140679120</v>
+      </c>
+      <c r="V39" t="n">
+        <v>44287044</v>
+      </c>
+      <c r="W39" t="n">
+        <v>4306160</v>
+      </c>
+      <c r="X39" t="n">
+        <v>82205</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5132294000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>133263900</v>
+      </c>
+      <c r="E40" t="n">
+        <v>625964500</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1705956100</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2698190800</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3119255600</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3426248400</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3114660600</v>
+      </c>
+      <c r="K40" t="n">
+        <v>128715730</v>
+      </c>
+      <c r="L40" t="n">
+        <v>492700580</v>
+      </c>
+      <c r="M40" t="n">
+        <v>561822000</v>
+      </c>
+      <c r="N40" t="n">
+        <v>518169600</v>
+      </c>
+      <c r="O40" t="n">
+        <v>515064320</v>
+      </c>
+      <c r="P40" t="n">
+        <v>885512960</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>704405300</v>
+      </c>
+      <c r="R40" t="n">
+        <v>478668160</v>
+      </c>
+      <c r="S40" t="n">
+        <v>384125800</v>
+      </c>
+      <c r="T40" t="n">
+        <v>266214290</v>
+      </c>
+      <c r="U40" t="n">
+        <v>141658690</v>
+      </c>
+      <c r="V40" t="n">
+        <v>46052470</v>
+      </c>
+      <c r="W40" t="n">
+        <v>4546431</v>
+      </c>
+      <c r="X40" t="n">
+        <v>89496</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5223704000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>133604330</v>
+      </c>
+      <c r="E41" t="n">
+        <v>634819400</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1726551400</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2726542600</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3181544200</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3497056300</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3185296400</v>
+      </c>
+      <c r="K41" t="n">
+        <v>129547320</v>
+      </c>
+      <c r="L41" t="n">
+        <v>501215100</v>
+      </c>
+      <c r="M41" t="n">
+        <v>571810050</v>
+      </c>
+      <c r="N41" t="n">
+        <v>519922000</v>
+      </c>
+      <c r="O41" t="n">
+        <v>517624400</v>
+      </c>
+      <c r="P41" t="n">
+        <v>906887040</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>720327600</v>
+      </c>
+      <c r="R41" t="n">
+        <v>491990850</v>
+      </c>
+      <c r="S41" t="n">
+        <v>389527100</v>
+      </c>
+      <c r="T41" t="n">
+        <v>274765920</v>
+      </c>
+      <c r="U41" t="n">
+        <v>143287250</v>
+      </c>
+      <c r="V41" t="n">
+        <v>47864124</v>
+      </c>
+      <c r="W41" t="n">
+        <v>4782129</v>
+      </c>
+      <c r="X41" t="n">
+        <v>96510</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5316176000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>134885140</v>
+      </c>
+      <c r="E42" t="n">
+        <v>642748000</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1749211800</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2756383200</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3242567700</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3566861600</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3256006000</v>
+      </c>
+      <c r="K42" t="n">
+        <v>129989090</v>
+      </c>
+      <c r="L42" t="n">
+        <v>507862900</v>
+      </c>
+      <c r="M42" t="n">
+        <v>581132540</v>
+      </c>
+      <c r="N42" t="n">
+        <v>525331140</v>
+      </c>
+      <c r="O42" t="n">
+        <v>517780580</v>
+      </c>
+      <c r="P42" t="n">
+        <v>930071900</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>733398900</v>
+      </c>
+      <c r="R42" t="n">
+        <v>507792400</v>
+      </c>
+      <c r="S42" t="n">
+        <v>394737920</v>
+      </c>
+      <c r="T42" t="n">
+        <v>282283460</v>
+      </c>
+      <c r="U42" t="n">
+        <v>146077100</v>
+      </c>
+      <c r="V42" t="n">
+        <v>49677090</v>
+      </c>
+      <c r="W42" t="n">
+        <v>5042309</v>
+      </c>
+      <c r="X42" t="n">
+        <v>102442</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5406246000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>133143890</v>
+      </c>
+      <c r="E43" t="n">
+        <v>646245400</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1770592000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2783831000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3302194400</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3635547400</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3326345500</v>
+      </c>
+      <c r="K43" t="n">
+        <v>131301980</v>
+      </c>
+      <c r="L43" t="n">
+        <v>513101500</v>
+      </c>
+      <c r="M43" t="n">
+        <v>590612300</v>
+      </c>
+      <c r="N43" t="n">
+        <v>533734370</v>
+      </c>
+      <c r="O43" t="n">
+        <v>516222600</v>
+      </c>
+      <c r="P43" t="n">
+        <v>953406800</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>744976000</v>
+      </c>
+      <c r="R43" t="n">
+        <v>525546460</v>
+      </c>
+      <c r="S43" t="n">
+        <v>400204740</v>
+      </c>
+      <c r="T43" t="n">
+        <v>288909380</v>
+      </c>
+      <c r="U43" t="n">
+        <v>149552140</v>
+      </c>
+      <c r="V43" t="n">
+        <v>51409550</v>
+      </c>
+      <c r="W43" t="n">
+        <v>5319628</v>
+      </c>
+      <c r="X43" t="n">
+        <v>106560</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5492686300</v>
+      </c>
+      <c r="D44" t="n">
+        <v>130019300</v>
+      </c>
+      <c r="E44" t="n">
+        <v>644299300</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1789770200</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2808784600</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3359978500</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3702806300</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3395051000</v>
+      </c>
+      <c r="K44" t="n">
+        <v>129700296</v>
+      </c>
+      <c r="L44" t="n">
+        <v>514280030</v>
+      </c>
+      <c r="M44" t="n">
+        <v>600223740</v>
+      </c>
+      <c r="N44" t="n">
+        <v>545247100</v>
+      </c>
+      <c r="O44" t="n">
+        <v>514654900</v>
+      </c>
+      <c r="P44" t="n">
+        <v>971211400</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>758587140</v>
+      </c>
+      <c r="R44" t="n">
+        <v>545969540</v>
+      </c>
+      <c r="S44" t="n">
+        <v>405290200</v>
+      </c>
+      <c r="T44" t="n">
+        <v>295091070</v>
+      </c>
+      <c r="U44" t="n">
+        <v>153178240</v>
+      </c>
+      <c r="V44" t="n">
+        <v>53202268</v>
+      </c>
+      <c r="W44" t="n">
+        <v>5621540</v>
+      </c>
+      <c r="X44" t="n">
+        <v>109636</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5577433600</v>
+      </c>
+      <c r="D45" t="n">
+        <v>128886940</v>
+      </c>
+      <c r="E45" t="n">
+        <v>640708740</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1807894100</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2830809600</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3416721400</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3769427500</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3461408800</v>
+      </c>
+      <c r="K45" t="n">
+        <v>126749950</v>
+      </c>
+      <c r="L45" t="n">
+        <v>511821800</v>
+      </c>
+      <c r="M45" t="n">
+        <v>609779400</v>
+      </c>
+      <c r="N45" t="n">
+        <v>557406000</v>
+      </c>
+      <c r="O45" t="n">
+        <v>513780130</v>
+      </c>
+      <c r="P45" t="n">
+        <v>980611140</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>778135040</v>
+      </c>
+      <c r="R45" t="n">
+        <v>568197100</v>
+      </c>
+      <c r="S45" t="n">
+        <v>409701700</v>
+      </c>
+      <c r="T45" t="n">
+        <v>300755970</v>
+      </c>
+      <c r="U45" t="n">
+        <v>157271700</v>
+      </c>
+      <c r="V45" t="n">
+        <v>55044840</v>
+      </c>
+      <c r="W45" t="n">
+        <v>5929831</v>
+      </c>
+      <c r="X45" t="n">
+        <v>111916</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5660728000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>128271780</v>
+      </c>
+      <c r="E46" t="n">
+        <v>635994940</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1822604300</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2849416400</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3475283000</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3838008000</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3526792200</v>
+      </c>
+      <c r="K46" t="n">
+        <v>125684950</v>
+      </c>
+      <c r="L46" t="n">
+        <v>507723170</v>
+      </c>
+      <c r="M46" t="n">
+        <v>618929340</v>
+      </c>
+      <c r="N46" t="n">
+        <v>567680000</v>
+      </c>
+      <c r="O46" t="n">
+        <v>515589500</v>
+      </c>
+      <c r="P46" t="n">
+        <v>987584400</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>798483260</v>
+      </c>
+      <c r="R46" t="n">
+        <v>591436860</v>
+      </c>
+      <c r="S46" t="n">
+        <v>414155970</v>
+      </c>
+      <c r="T46" t="n">
+        <v>305854880</v>
+      </c>
+      <c r="U46" t="n">
+        <v>161834930</v>
+      </c>
+      <c r="V46" t="n">
+        <v>56844250</v>
+      </c>
+      <c r="W46" t="n">
+        <v>6224038</v>
+      </c>
+      <c r="X46" t="n">
+        <v>115639</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5743219700</v>
+      </c>
+      <c r="D47" t="n">
+        <v>127897230</v>
+      </c>
+      <c r="E47" t="n">
+        <v>629561150</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1833902500</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2866480600</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3536369200</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3909195300</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3591883300</v>
+      </c>
+      <c r="K47" t="n">
+        <v>125132340</v>
+      </c>
+      <c r="L47" t="n">
+        <v>501663900</v>
+      </c>
+      <c r="M47" t="n">
+        <v>627077300</v>
+      </c>
+      <c r="N47" t="n">
+        <v>577263940</v>
+      </c>
+      <c r="O47" t="n">
+        <v>521320030</v>
+      </c>
+      <c r="P47" t="n">
+        <v>994325100</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>816109000</v>
+      </c>
+      <c r="R47" t="n">
+        <v>615919200</v>
+      </c>
+      <c r="S47" t="n">
+        <v>418692320</v>
+      </c>
+      <c r="T47" t="n">
+        <v>311098880</v>
+      </c>
+      <c r="U47" t="n">
+        <v>166903920</v>
+      </c>
+      <c r="V47" t="n">
+        <v>58286496</v>
+      </c>
+      <c r="W47" t="n">
+        <v>6540182</v>
+      </c>
+      <c r="X47" t="n">
+        <v>121903</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5825145300</v>
+      </c>
+      <c r="D48" t="n">
+        <v>127510390</v>
+      </c>
+      <c r="E48" t="n">
+        <v>624459460</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1842741400</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2882774800</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3599491000</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3982274600</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3656896500</v>
+      </c>
+      <c r="K48" t="n">
+        <v>124861900</v>
+      </c>
+      <c r="L48" t="n">
+        <v>496949060</v>
+      </c>
+      <c r="M48" t="n">
+        <v>631190000</v>
+      </c>
+      <c r="N48" t="n">
+        <v>587092000</v>
+      </c>
+      <c r="O48" t="n">
+        <v>530206880</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1000205760</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>832732160</v>
+      </c>
+      <c r="R48" t="n">
+        <v>638594600</v>
+      </c>
+      <c r="S48" t="n">
+        <v>424876200</v>
+      </c>
+      <c r="T48" t="n">
+        <v>316797540</v>
+      </c>
+      <c r="U48" t="n">
+        <v>172808020</v>
+      </c>
+      <c r="V48" t="n">
+        <v>59197116</v>
+      </c>
+      <c r="W48" t="n">
+        <v>6856105</v>
+      </c>
+      <c r="X48" t="n">
+        <v>129472</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5906481000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>127089140</v>
+      </c>
+      <c r="E49" t="n">
+        <v>621931500</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1848362200</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2898902000</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3665346000</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4057981000</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3724052200</v>
+      </c>
+      <c r="K49" t="n">
+        <v>124561890</v>
+      </c>
+      <c r="L49" t="n">
+        <v>494842430</v>
+      </c>
+      <c r="M49" t="n">
+        <v>629739260</v>
+      </c>
+      <c r="N49" t="n">
+        <v>596691460</v>
+      </c>
+      <c r="O49" t="n">
+        <v>541971900</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1006288640</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>847529400</v>
+      </c>
+      <c r="R49" t="n">
+        <v>659219800</v>
+      </c>
+      <c r="S49" t="n">
+        <v>433873000</v>
+      </c>
+      <c r="T49" t="n">
+        <v>322693800</v>
+      </c>
+      <c r="U49" t="n">
+        <v>179363710</v>
+      </c>
+      <c r="V49" t="n">
+        <v>59847860</v>
+      </c>
+      <c r="W49" t="n">
+        <v>7192732</v>
+      </c>
+      <c r="X49" t="n">
+        <v>138125</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5987312600</v>
+      </c>
+      <c r="D50" t="n">
+        <v>126803750</v>
+      </c>
+      <c r="E50" t="n">
+        <v>620210500</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1852400500</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2914523600</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3732108300</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4134763500</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3794155300</v>
+      </c>
+      <c r="K50" t="n">
+        <v>124191350</v>
+      </c>
+      <c r="L50" t="n">
+        <v>493406720</v>
+      </c>
+      <c r="M50" t="n">
+        <v>626240400</v>
+      </c>
+      <c r="N50" t="n">
+        <v>605949700</v>
+      </c>
+      <c r="O50" t="n">
+        <v>554094660</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1010757760</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>863994430</v>
+      </c>
+      <c r="R50" t="n">
+        <v>678404700</v>
+      </c>
+      <c r="S50" t="n">
+        <v>444721020</v>
+      </c>
+      <c r="T50" t="n">
+        <v>328390080</v>
+      </c>
+      <c r="U50" t="n">
+        <v>186292620</v>
+      </c>
+      <c r="V50" t="n">
+        <v>60537636</v>
+      </c>
+      <c r="W50" t="n">
+        <v>7570551</v>
+      </c>
+      <c r="X50" t="n">
+        <v>148450</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6067758600</v>
+      </c>
+      <c r="D51" t="n">
+        <v>126796456</v>
+      </c>
+      <c r="E51" t="n">
+        <v>619190140</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1855919200</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2930422500</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3798986000</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4211680800</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3866340600</v>
+      </c>
+      <c r="K51" t="n">
+        <v>124003900</v>
+      </c>
+      <c r="L51" t="n">
+        <v>492393660</v>
+      </c>
+      <c r="M51" t="n">
+        <v>621684000</v>
+      </c>
+      <c r="N51" t="n">
+        <v>615045060</v>
+      </c>
+      <c r="O51" t="n">
+        <v>564400400</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1015011840</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>884571900</v>
+      </c>
+      <c r="R51" t="n">
+        <v>693802200</v>
+      </c>
+      <c r="S51" t="n">
+        <v>457661280</v>
+      </c>
+      <c r="T51" t="n">
+        <v>333642370</v>
+      </c>
+      <c r="U51" t="n">
+        <v>192955520</v>
+      </c>
+      <c r="V51" t="n">
+        <v>61681670</v>
+      </c>
+      <c r="W51" t="n">
+        <v>7953592</v>
+      </c>
+      <c r="X51" t="n">
+        <v>158500</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6148899000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>127784050</v>
+      </c>
+      <c r="E52" t="n">
+        <v>619565060</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1858320100</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2948407600</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3867322000</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4290409700</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3941004800</v>
+      </c>
+      <c r="K52" t="n">
+        <v>124136360</v>
+      </c>
+      <c r="L52" t="n">
+        <v>491781000</v>
+      </c>
+      <c r="M52" t="n">
+        <v>615498240</v>
+      </c>
+      <c r="N52" t="n">
+        <v>623256900</v>
+      </c>
+      <c r="O52" t="n">
+        <v>573935170</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1021141600</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>906724600</v>
+      </c>
+      <c r="R52" t="n">
+        <v>706203000</v>
+      </c>
+      <c r="S52" t="n">
+        <v>472771170</v>
+      </c>
+      <c r="T52" t="n">
+        <v>338730340</v>
+      </c>
+      <c r="U52" t="n">
+        <v>198953710</v>
+      </c>
+      <c r="V52" t="n">
+        <v>63604496</v>
+      </c>
+      <c r="W52" t="n">
+        <v>8345619</v>
+      </c>
+      <c r="X52" t="n">
+        <v>168968</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6230747000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>128678616</v>
+      </c>
+      <c r="E53" t="n">
+        <v>621252100</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1859114100</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2967831300</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3937227800</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4371452400</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4016496400</v>
+      </c>
+      <c r="K53" t="n">
+        <v>125236090</v>
+      </c>
+      <c r="L53" t="n">
+        <v>492573470</v>
+      </c>
+      <c r="M53" t="n">
+        <v>610540860</v>
+      </c>
+      <c r="N53" t="n">
+        <v>627321150</v>
+      </c>
+      <c r="O53" t="n">
+        <v>583462600</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1029019840</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>929225200</v>
+      </c>
+      <c r="R53" t="n">
+        <v>716901000</v>
+      </c>
+      <c r="S53" t="n">
+        <v>489637700</v>
+      </c>
+      <c r="T53" t="n">
+        <v>344007100</v>
+      </c>
+      <c r="U53" t="n">
+        <v>204344930</v>
+      </c>
+      <c r="V53" t="n">
+        <v>66101330</v>
+      </c>
+      <c r="W53" t="n">
+        <v>8752762</v>
+      </c>
+      <c r="X53" t="n">
+        <v>180387</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6312407600</v>
+      </c>
+      <c r="D54" t="n">
+        <v>128855820</v>
+      </c>
+      <c r="E54" t="n">
+        <v>623777800</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1858105900</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2987675100</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4008336100</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4454109000</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4091588900</v>
+      </c>
+      <c r="K54" t="n">
+        <v>126254130</v>
+      </c>
+      <c r="L54" t="n">
+        <v>494922000</v>
+      </c>
+      <c r="M54" t="n">
+        <v>608321000</v>
+      </c>
+      <c r="N54" t="n">
+        <v>626007000</v>
+      </c>
+      <c r="O54" t="n">
+        <v>592764300</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1039428860</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>946799000</v>
+      </c>
+      <c r="R54" t="n">
+        <v>729786600</v>
+      </c>
+      <c r="S54" t="n">
+        <v>509129570</v>
+      </c>
+      <c r="T54" t="n">
+        <v>348901380</v>
+      </c>
+      <c r="U54" t="n">
+        <v>209409280</v>
+      </c>
+      <c r="V54" t="n">
+        <v>68715370</v>
+      </c>
+      <c r="W54" t="n">
+        <v>9174990</v>
+      </c>
+      <c r="X54" t="n">
+        <v>192270</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C55" t="n">
+        <v>6393898500</v>
+      </c>
+      <c r="D55" t="n">
+        <v>129210664</v>
+      </c>
+      <c r="E55" t="n">
+        <v>627026500</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1857016400</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3007290000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4079377000</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4536679000</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4167985200</v>
+      </c>
+      <c r="K55" t="n">
+        <v>126538700</v>
+      </c>
+      <c r="L55" t="n">
+        <v>497815840</v>
+      </c>
+      <c r="M55" t="n">
+        <v>607202700</v>
+      </c>
+      <c r="N55" t="n">
+        <v>622787200</v>
+      </c>
+      <c r="O55" t="n">
+        <v>601784450</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1050620350</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>956359360</v>
+      </c>
+      <c r="R55" t="n">
+        <v>748851400</v>
+      </c>
+      <c r="S55" t="n">
+        <v>530463900</v>
+      </c>
+      <c r="T55" t="n">
+        <v>353260160</v>
+      </c>
+      <c r="U55" t="n">
+        <v>214159310</v>
+      </c>
+      <c r="V55" t="n">
+        <v>71579030</v>
+      </c>
+      <c r="W55" t="n">
+        <v>9601113</v>
+      </c>
+      <c r="X55" t="n">
+        <v>202876</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6475751400</v>
+      </c>
+      <c r="D56" t="n">
+        <v>129892216</v>
+      </c>
+      <c r="E56" t="n">
+        <v>630788860</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1856051100</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3025164300</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4150801000</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4619487700</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4246635500</v>
+      </c>
+      <c r="K56" t="n">
+        <v>126984040</v>
+      </c>
+      <c r="L56" t="n">
+        <v>500896640</v>
+      </c>
+      <c r="M56" t="n">
+        <v>606796540</v>
+      </c>
+      <c r="N56" t="n">
+        <v>618465700</v>
+      </c>
+      <c r="O56" t="n">
+        <v>610772500</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1062582200</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>963278800</v>
+      </c>
+      <c r="R56" t="n">
+        <v>768739400</v>
+      </c>
+      <c r="S56" t="n">
+        <v>552852200</v>
+      </c>
+      <c r="T56" t="n">
+        <v>357781980</v>
+      </c>
+      <c r="U56" t="n">
+        <v>218663100</v>
+      </c>
+      <c r="V56" t="n">
+        <v>74763570</v>
+      </c>
+      <c r="W56" t="n">
+        <v>10054185</v>
+      </c>
+      <c r="X56" t="n">
+        <v>212495</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6558176000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>130709610</v>
+      </c>
+      <c r="E57" t="n">
+        <v>634207170</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1854493400</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3041231000</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4223352600</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4703459000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4327464000</v>
+      </c>
+      <c r="K57" t="n">
+        <v>127760530</v>
+      </c>
+      <c r="L57" t="n">
+        <v>503497540</v>
+      </c>
+      <c r="M57" t="n">
+        <v>607754900</v>
+      </c>
+      <c r="N57" t="n">
+        <v>612531460</v>
+      </c>
+      <c r="O57" t="n">
+        <v>619159800</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1077730700</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>969807900</v>
+      </c>
+      <c r="R57" t="n">
+        <v>785905800</v>
+      </c>
+      <c r="S57" t="n">
+        <v>576418750</v>
+      </c>
+      <c r="T57" t="n">
+        <v>362490720</v>
+      </c>
+      <c r="U57" t="n">
+        <v>223366000</v>
+      </c>
+      <c r="V57" t="n">
+        <v>78137496</v>
+      </c>
+      <c r="W57" t="n">
+        <v>10441563</v>
+      </c>
+      <c r="X57" t="n">
+        <v>223870</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6641416000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>131601530</v>
+      </c>
+      <c r="E58" t="n">
+        <v>637556900</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1855443100</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3056088800</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4294202600</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4785736700</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4408938000</v>
+      </c>
+      <c r="K58" t="n">
+        <v>128678410</v>
+      </c>
+      <c r="L58" t="n">
+        <v>505955400</v>
+      </c>
+      <c r="M58" t="n">
+        <v>610031040</v>
+      </c>
+      <c r="N58" t="n">
+        <v>607855170</v>
+      </c>
+      <c r="O58" t="n">
+        <v>623576060</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1096160500</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>975864800</v>
+      </c>
+      <c r="R58" t="n">
+        <v>802254300</v>
+      </c>
+      <c r="S58" t="n">
+        <v>598206500</v>
+      </c>
+      <c r="T58" t="n">
+        <v>368799780</v>
+      </c>
+      <c r="U58" t="n">
+        <v>228394560</v>
+      </c>
+      <c r="V58" t="n">
+        <v>81775480</v>
+      </c>
+      <c r="W58" t="n">
+        <v>10704722</v>
+      </c>
+      <c r="X58" t="n">
+        <v>236379</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6725948400</v>
+      </c>
+      <c r="D59" t="n">
+        <v>133047816</v>
+      </c>
+      <c r="E59" t="n">
+        <v>642225150</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1860798000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3069826300</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4362512000</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4864898600</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4490873300</v>
+      </c>
+      <c r="K59" t="n">
+        <v>129659190</v>
+      </c>
+      <c r="L59" t="n">
+        <v>509177300</v>
+      </c>
+      <c r="M59" t="n">
+        <v>612830200</v>
+      </c>
+      <c r="N59" t="n">
+        <v>605742660</v>
+      </c>
+      <c r="O59" t="n">
+        <v>622483800</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1117289700</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>982352800</v>
+      </c>
+      <c r="R59" t="n">
+        <v>816890500</v>
+      </c>
+      <c r="S59" t="n">
+        <v>618007900</v>
+      </c>
+      <c r="T59" t="n">
+        <v>377752320</v>
+      </c>
+      <c r="U59" t="n">
+        <v>233596980</v>
+      </c>
+      <c r="V59" t="n">
+        <v>85598920</v>
+      </c>
+      <c r="W59" t="n">
+        <v>10925741</v>
+      </c>
+      <c r="X59" t="n">
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6811597300</v>
+      </c>
+      <c r="D60" t="n">
+        <v>134765520</v>
+      </c>
+      <c r="E60" t="n">
+        <v>648366200</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1869153500</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3084296700</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4429451000</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4942174000</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4573624000</v>
+      </c>
+      <c r="K60" t="n">
+        <v>131193170</v>
+      </c>
+      <c r="L60" t="n">
+        <v>513600640</v>
+      </c>
+      <c r="M60" t="n">
+        <v>616194700</v>
+      </c>
+      <c r="N60" t="n">
+        <v>604592640</v>
+      </c>
+      <c r="O60" t="n">
+        <v>619293500</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1138524200</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>987143400</v>
+      </c>
+      <c r="R60" t="n">
+        <v>833089900</v>
+      </c>
+      <c r="S60" t="n">
+        <v>636315100</v>
+      </c>
+      <c r="T60" t="n">
+        <v>388476130</v>
+      </c>
+      <c r="U60" t="n">
+        <v>238691040</v>
+      </c>
+      <c r="V60" t="n">
+        <v>89479030</v>
+      </c>
+      <c r="W60" t="n">
+        <v>11162102</v>
+      </c>
+      <c r="X60" t="n">
+        <v>269380</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6898306000</v>
+      </c>
+      <c r="D61" t="n">
+        <v>136155150</v>
+      </c>
+      <c r="E61" t="n">
+        <v>655241900</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1879595500</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3099635700</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4495119000</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5018422300</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4654348300</v>
+      </c>
+      <c r="K61" t="n">
+        <v>132992280</v>
+      </c>
+      <c r="L61" t="n">
+        <v>519086800</v>
+      </c>
+      <c r="M61" t="n">
+        <v>620181000</v>
+      </c>
+      <c r="N61" t="n">
+        <v>604172600</v>
+      </c>
+      <c r="O61" t="n">
+        <v>614937340</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1157863300</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>991713700</v>
+      </c>
+      <c r="R61" t="n">
+        <v>853413500</v>
+      </c>
+      <c r="S61" t="n">
+        <v>650994000</v>
+      </c>
+      <c r="T61" t="n">
+        <v>401144260</v>
+      </c>
+      <c r="U61" t="n">
+        <v>243492880</v>
+      </c>
+      <c r="V61" t="n">
+        <v>93292610</v>
+      </c>
+      <c r="W61" t="n">
+        <v>11570891</v>
+      </c>
+      <c r="X61" t="n">
+        <v>287925</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C62" t="n">
+        <v>6985603000</v>
+      </c>
+      <c r="D62" t="n">
+        <v>136963410</v>
+      </c>
+      <c r="E62" t="n">
+        <v>661999800</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1891103200</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3113781000</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4559888400</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5094191600</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4731702300</v>
+      </c>
+      <c r="K62" t="n">
+        <v>134457760</v>
+      </c>
+      <c r="L62" t="n">
+        <v>525036380</v>
+      </c>
+      <c r="M62" t="n">
+        <v>623975230</v>
+      </c>
+      <c r="N62" t="n">
+        <v>605128100</v>
+      </c>
+      <c r="O62" t="n">
+        <v>609029700</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1175770200</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>997913600</v>
+      </c>
+      <c r="R62" t="n">
+        <v>875409200</v>
+      </c>
+      <c r="S62" t="n">
+        <v>662920200</v>
+      </c>
+      <c r="T62" t="n">
+        <v>415750850</v>
+      </c>
+      <c r="U62" t="n">
+        <v>248276140</v>
+      </c>
+      <c r="V62" t="n">
+        <v>96869730</v>
+      </c>
+      <c r="W62" t="n">
+        <v>12252024</v>
+      </c>
+      <c r="X62" t="n">
+        <v>308220</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C63" t="n">
+        <v>7073125400</v>
+      </c>
+      <c r="D63" t="n">
+        <v>137608960</v>
+      </c>
+      <c r="E63" t="n">
+        <v>668509440</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1903771600</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3126214100</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4621871600</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5169024000</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4807285000</v>
+      </c>
+      <c r="K63" t="n">
+        <v>135387420</v>
+      </c>
+      <c r="L63" t="n">
+        <v>530900480</v>
+      </c>
+      <c r="M63" t="n">
+        <v>627846700</v>
+      </c>
+      <c r="N63" t="n">
+        <v>607415500</v>
+      </c>
+      <c r="O63" t="n">
+        <v>604323500</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1189598000</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1005568450</v>
+      </c>
+      <c r="R63" t="n">
+        <v>897860160</v>
+      </c>
+      <c r="S63" t="n">
+        <v>673372300</v>
+      </c>
+      <c r="T63" t="n">
+        <v>431861200</v>
+      </c>
+      <c r="U63" t="n">
+        <v>253232370</v>
+      </c>
+      <c r="V63" t="n">
+        <v>100122690</v>
+      </c>
+      <c r="W63" t="n">
+        <v>13085427</v>
+      </c>
+      <c r="X63" t="n">
+        <v>329721</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7161698000</v>
+      </c>
+      <c r="D64" t="n">
+        <v>139070880</v>
+      </c>
+      <c r="E64" t="n">
+        <v>675141100</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1918554800</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3137698300</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4680109000</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5242790400</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4881655300</v>
+      </c>
+      <c r="K64" t="n">
+        <v>136161180</v>
+      </c>
+      <c r="L64" t="n">
+        <v>536070240</v>
+      </c>
+      <c r="M64" t="n">
+        <v>633113300</v>
+      </c>
+      <c r="N64" t="n">
+        <v>610300300</v>
+      </c>
+      <c r="O64" t="n">
+        <v>602123800</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1197683300</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1016052160</v>
+      </c>
+      <c r="R64" t="n">
+        <v>915714370</v>
+      </c>
+      <c r="S64" t="n">
+        <v>686144800</v>
+      </c>
+      <c r="T64" t="n">
+        <v>450106660</v>
+      </c>
+      <c r="U64" t="n">
+        <v>257871260</v>
+      </c>
+      <c r="V64" t="n">
+        <v>103192664</v>
+      </c>
+      <c r="W64" t="n">
+        <v>13901517</v>
+      </c>
+      <c r="X64" t="n">
+        <v>352718</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7250593300</v>
+      </c>
+      <c r="D65" t="n">
+        <v>139783730</v>
+      </c>
+      <c r="E65" t="n">
+        <v>680779600</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1934434600</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3149216800</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4735886000</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5315782000</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4955131000</v>
+      </c>
+      <c r="K65" t="n">
+        <v>137708430</v>
+      </c>
+      <c r="L65" t="n">
+        <v>540995840</v>
+      </c>
+      <c r="M65" t="n">
+        <v>639867400</v>
+      </c>
+      <c r="N65" t="n">
+        <v>613787650</v>
+      </c>
+      <c r="O65" t="n">
+        <v>601017860</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1203483600</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1027449860</v>
+      </c>
+      <c r="R65" t="n">
+        <v>925875500</v>
+      </c>
+      <c r="S65" t="n">
+        <v>704962940</v>
+      </c>
+      <c r="T65" t="n">
+        <v>469803520</v>
+      </c>
+      <c r="U65" t="n">
+        <v>262186180</v>
+      </c>
+      <c r="V65" t="n">
+        <v>106218424</v>
+      </c>
+      <c r="W65" t="n">
+        <v>14784080</v>
+      </c>
+      <c r="X65" t="n">
+        <v>376683</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7339013600</v>
+      </c>
+      <c r="D66" t="n">
+        <v>139590620</v>
+      </c>
+      <c r="E66" t="n">
+        <v>684753000</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1950067700</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3160265000</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4789794000</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5388544000</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5027746000</v>
+      </c>
+      <c r="K66" t="n">
+        <v>138478740</v>
+      </c>
+      <c r="L66" t="n">
+        <v>545162430</v>
+      </c>
+      <c r="M66" t="n">
+        <v>647382140</v>
+      </c>
+      <c r="N66" t="n">
+        <v>617932540</v>
+      </c>
+      <c r="O66" t="n">
+        <v>600881300</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1208120000</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1039364900</v>
+      </c>
+      <c r="R66" t="n">
+        <v>933558900</v>
+      </c>
+      <c r="S66" t="n">
+        <v>724594560</v>
+      </c>
+      <c r="T66" t="n">
+        <v>490320740</v>
+      </c>
+      <c r="U66" t="n">
+        <v>266666190</v>
+      </c>
+      <c r="V66" t="n">
+        <v>109279150</v>
+      </c>
+      <c r="W66" t="n">
+        <v>15758232</v>
+      </c>
+      <c r="X66" t="n">
+        <v>401747</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C67" t="n">
+        <v>7426597400</v>
+      </c>
+      <c r="D67" t="n">
+        <v>139309630</v>
+      </c>
+      <c r="E67" t="n">
+        <v>687534000</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1964306700</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3169738200</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4842570000</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5461868500</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5099350000</v>
+      </c>
+      <c r="K67" t="n">
+        <v>138354700</v>
+      </c>
+      <c r="L67" t="n">
+        <v>548224400</v>
+      </c>
+      <c r="M67" t="n">
+        <v>654825150</v>
+      </c>
+      <c r="N67" t="n">
+        <v>621947460</v>
+      </c>
+      <c r="O67" t="n">
+        <v>602199500</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1210493200</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1054263200</v>
+      </c>
+      <c r="R67" t="n">
+        <v>940925440</v>
+      </c>
+      <c r="S67" t="n">
+        <v>741697700</v>
+      </c>
+      <c r="T67" t="n">
+        <v>511844960</v>
+      </c>
+      <c r="U67" t="n">
+        <v>271247680</v>
+      </c>
+      <c r="V67" t="n">
+        <v>112493050</v>
+      </c>
+      <c r="W67" t="n">
+        <v>16703625</v>
+      </c>
+      <c r="X67" t="n">
+        <v>422479</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7513474000</v>
+      </c>
+      <c r="D68" t="n">
+        <v>139262160</v>
+      </c>
+      <c r="E68" t="n">
+        <v>689597950</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1977518000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3180850000</v>
+      </c>
+      <c r="H68" t="n">
+        <v>4894320600</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5535515000</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5170277000</v>
+      </c>
+      <c r="K68" t="n">
+        <v>138167890</v>
+      </c>
+      <c r="L68" t="n">
+        <v>550335740</v>
+      </c>
+      <c r="M68" t="n">
+        <v>661842400</v>
+      </c>
+      <c r="N68" t="n">
+        <v>626077600</v>
+      </c>
+      <c r="O68" t="n">
+        <v>604712060</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1210461200</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1072298300</v>
+      </c>
+      <c r="R68" t="n">
+        <v>947469700</v>
+      </c>
+      <c r="S68" t="n">
+        <v>758017000</v>
+      </c>
+      <c r="T68" t="n">
+        <v>531722300</v>
+      </c>
+      <c r="U68" t="n">
+        <v>277227970</v>
+      </c>
+      <c r="V68" t="n">
+        <v>115949520</v>
+      </c>
+      <c r="W68" t="n">
+        <v>17657084</v>
+      </c>
+      <c r="X68" t="n">
+        <v>441166</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7599822300</v>
+      </c>
+      <c r="D69" t="n">
+        <v>139420590</v>
+      </c>
+      <c r="E69" t="n">
+        <v>690360700</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1990610400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3195310300</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4944168400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5608752600</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5240874500</v>
+      </c>
+      <c r="K69" t="n">
+        <v>138183950</v>
+      </c>
+      <c r="L69" t="n">
+        <v>550940160</v>
+      </c>
+      <c r="M69" t="n">
+        <v>668653200</v>
+      </c>
+      <c r="N69" t="n">
+        <v>631596500</v>
+      </c>
+      <c r="O69" t="n">
+        <v>607785800</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1207877900</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1092995100</v>
+      </c>
+      <c r="R69" t="n">
+        <v>953971900</v>
+      </c>
+      <c r="S69" t="n">
+        <v>772621950</v>
+      </c>
+      <c r="T69" t="n">
+        <v>549785660</v>
+      </c>
+      <c r="U69" t="n">
+        <v>285532670</v>
+      </c>
+      <c r="V69" t="n">
+        <v>119566930</v>
+      </c>
+      <c r="W69" t="n">
+        <v>18615136</v>
+      </c>
+      <c r="X69" t="n">
+        <v>459150</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C70" t="n">
+        <v>7683790000</v>
+      </c>
+      <c r="D70" t="n">
+        <v>137690030</v>
+      </c>
+      <c r="E70" t="n">
+        <v>688660400</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2001436500</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3209171200</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4992920600</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5681877500</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5312115700</v>
+      </c>
+      <c r="K70" t="n">
+        <v>138376850</v>
+      </c>
+      <c r="L70" t="n">
+        <v>550970400</v>
+      </c>
+      <c r="M70" t="n">
+        <v>674324740</v>
+      </c>
+      <c r="N70" t="n">
+        <v>638451460</v>
+      </c>
+      <c r="O70" t="n">
+        <v>611398340</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1204281300</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1114043900</v>
+      </c>
+      <c r="R70" t="n">
+        <v>958684500</v>
+      </c>
+      <c r="S70" t="n">
+        <v>788847800</v>
+      </c>
+      <c r="T70" t="n">
+        <v>566538940</v>
+      </c>
+      <c r="U70" t="n">
+        <v>295304100</v>
+      </c>
+      <c r="V70" t="n">
+        <v>123199544</v>
+      </c>
+      <c r="W70" t="n">
+        <v>19578904</v>
+      </c>
+      <c r="X70" t="n">
+        <v>475921</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C71" t="n">
+        <v>7764951000</v>
+      </c>
+      <c r="D71" t="n">
+        <v>135471330</v>
+      </c>
+      <c r="E71" t="n">
+        <v>684872600</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2009205500</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3221275600</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5041093000</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5755242000</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5383739000</v>
+      </c>
+      <c r="K71" t="n">
+        <v>136690500</v>
+      </c>
+      <c r="L71" t="n">
+        <v>549401300</v>
+      </c>
+      <c r="M71" t="n">
+        <v>678417150</v>
+      </c>
+      <c r="N71" t="n">
+        <v>645915800</v>
+      </c>
+      <c r="O71" t="n">
+        <v>615536000</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1200389900</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1133424100</v>
+      </c>
+      <c r="R71" t="n">
+        <v>963090600</v>
+      </c>
+      <c r="S71" t="n">
+        <v>809066200</v>
+      </c>
+      <c r="T71" t="n">
+        <v>579960400</v>
+      </c>
+      <c r="U71" t="n">
+        <v>306498750</v>
+      </c>
+      <c r="V71" t="n">
+        <v>126700504</v>
+      </c>
+      <c r="W71" t="n">
+        <v>20575482</v>
+      </c>
+      <c r="X71" t="n">
+        <v>503572</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7840953000</v>
+      </c>
+      <c r="D72" t="n">
+        <v>133345180</v>
+      </c>
+      <c r="E72" t="n">
+        <v>679146200</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2013738800</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3231274800</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5087737000</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5826666500</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5452538000</v>
+      </c>
+      <c r="K72" t="n">
+        <v>134525940</v>
+      </c>
+      <c r="L72" t="n">
+        <v>545801000</v>
+      </c>
+      <c r="M72" t="n">
+        <v>681410500</v>
+      </c>
+      <c r="N72" t="n">
+        <v>653182000</v>
+      </c>
+      <c r="O72" t="n">
+        <v>619493500</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1196254600</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1151358000</v>
+      </c>
+      <c r="R72" t="n">
+        <v>969082800</v>
+      </c>
+      <c r="S72" t="n">
+        <v>830432400</v>
+      </c>
+      <c r="T72" t="n">
+        <v>590299300</v>
+      </c>
+      <c r="U72" t="n">
+        <v>318539100</v>
+      </c>
+      <c r="V72" t="n">
+        <v>129707720</v>
+      </c>
+      <c r="W72" t="n">
+        <v>21499228</v>
+      </c>
+      <c r="X72" t="n">
+        <v>547543</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7909295000</v>
+      </c>
+      <c r="D73" t="n">
+        <v>131409180</v>
+      </c>
+      <c r="E73" t="n">
+        <v>671477300</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2015023400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3239281000</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5132999000</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5893678600</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5516283000</v>
+      </c>
+      <c r="K73" t="n">
+        <v>132442390</v>
+      </c>
+      <c r="L73" t="n">
+        <v>540068100</v>
+      </c>
+      <c r="M73" t="n">
+        <v>683611800</v>
+      </c>
+      <c r="N73" t="n">
+        <v>659934300</v>
+      </c>
+      <c r="O73" t="n">
+        <v>623560800</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1194528500</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1165207300</v>
+      </c>
+      <c r="R73" t="n">
+        <v>976407200</v>
+      </c>
+      <c r="S73" t="n">
+        <v>851356900</v>
+      </c>
+      <c r="T73" t="n">
+        <v>598067140</v>
+      </c>
+      <c r="U73" t="n">
+        <v>330491170</v>
+      </c>
+      <c r="V73" t="n">
+        <v>131835590</v>
+      </c>
+      <c r="W73" t="n">
+        <v>22223974</v>
+      </c>
+      <c r="X73" t="n">
+        <v>593166</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
